--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A353AB56-180D-45EA-AACA-83E61DBCAC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD910DA5-01F5-4841-9C11-B3E07EE3600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="130">
   <si>
     <t>Category</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>real_price</t>
-  </si>
-  <si>
-    <t>sale_price</t>
-  </si>
-  <si>
     <t>/product</t>
   </si>
   <si>
@@ -409,6 +403,18 @@
   </si>
   <si>
     <t>id_value2</t>
+  </si>
+  <si>
+    <t>no option product</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ShopFollow</t>
+  </si>
+  <si>
+    <t>use_count</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +551,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -621,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -646,18 +658,68 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,9 +741,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,27 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,10 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,6 +767,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CCFF"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFCCCCFF"/>
@@ -742,7 +777,6 @@
       <color rgb="FFFF99CC"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFF6699"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1053,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1112,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>0</v>
@@ -1094,16 +1128,16 @@
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1112,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1124,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1147,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1155,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1163,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1172,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1188,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -1199,17 +1233,17 @@
         <v>-1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1217,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1226,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1234,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1242,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1253,7 +1287,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1262,7 +1296,16 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>127</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1270,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1279,50 +1322,56 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="32" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="E9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="I9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="M9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="Q9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="U9" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="Y9" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AC9" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="I9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="M9" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="Q9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="U9" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="Y9" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AC9" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1377,7 +1426,7 @@
       </c>
       <c r="K11" s="5"/>
       <c r="M11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>5</v>
@@ -1428,44 +1477,44 @@
       </c>
       <c r="G12" s="4"/>
       <c r="I12" s="5" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="5"/>
       <c r="M12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="6"/>
       <c r="Q12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S12" s="9"/>
       <c r="U12" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W12" s="14"/>
       <c r="Y12" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC12" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="18" t="s">
         <v>26</v>
@@ -1481,49 +1530,49 @@
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="5"/>
       <c r="M13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
       <c r="Q13" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="S13" s="9"/>
       <c r="U13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W13" s="14"/>
       <c r="Y13" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA13" s="15"/>
       <c r="AC13" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AD13" s="18" t="s">
         <v>4</v>
@@ -1541,28 +1590,28 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="5"/>
       <c r="M14" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="6"/>
       <c r="Q14" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>9</v>
@@ -1576,14 +1625,14 @@
       </c>
       <c r="W14" s="14"/>
       <c r="Y14" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AA14" s="15"/>
       <c r="AC14" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD14" s="18" t="s">
         <v>5</v>
@@ -1599,49 +1648,49 @@
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="6"/>
       <c r="Q15" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S15" s="9"/>
       <c r="U15" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V15" s="14" t="s">
         <v>26</v>
       </c>
       <c r="W15" s="14"/>
       <c r="Y15" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AA15" s="15"/>
       <c r="AC15" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD15" s="18" t="s">
         <v>5</v>
@@ -1660,48 +1709,46 @@
         <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="K16" s="5"/>
       <c r="M16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="6"/>
       <c r="Q16" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="S16" s="9"/>
       <c r="U16" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="W16" s="14"/>
       <c r="Y16" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z16" s="15" t="s">
         <v>26</v>
       </c>
       <c r="AA16" s="15"/>
       <c r="AC16" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD16" s="18" t="s">
         <v>16</v>
@@ -1717,21 +1764,21 @@
       </c>
       <c r="C17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4"/>
       <c r="I17" s="5" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K17" s="5"/>
       <c r="M17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>9</v>
@@ -1745,14 +1792,14 @@
       </c>
       <c r="S17" s="9"/>
       <c r="U17" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="14"/>
       <c r="Y17" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z17" s="15" t="s">
         <v>5</v>
@@ -1777,21 +1824,23 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="M18" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>26</v>
@@ -1812,7 +1861,7 @@
       </c>
       <c r="W18" s="14"/>
       <c r="Y18" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="15" t="s">
         <v>4</v>
@@ -1828,28 +1877,28 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G19" s="4"/>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K19" s="5"/>
       <c r="M19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>16</v>
@@ -1876,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC19" s="18" t="s">
         <v>24</v>
@@ -1895,17 +1944,17 @@
       </c>
       <c r="C20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4"/>
       <c r="I20" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K20" s="5"/>
       <c r="M20" s="6" t="s">
@@ -1930,7 +1979,7 @@
       </c>
       <c r="W20" s="14"/>
       <c r="Y20" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z20" s="15" t="s">
         <v>16</v>
@@ -1953,17 +2002,17 @@
       </c>
       <c r="C21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4"/>
       <c r="I21" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K21" s="5"/>
       <c r="M21" s="6" t="s">
@@ -1988,7 +2037,7 @@
       </c>
       <c r="AA21" s="15"/>
       <c r="AC21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AD21" s="18" t="s">
         <v>26</v>
@@ -2004,14 +2053,14 @@
       </c>
       <c r="C22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>26</v>
@@ -2041,12 +2090,21 @@
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="M23" s="6" t="s">
         <v>25</v>
       </c>
@@ -2054,11 +2112,11 @@
         <v>26</v>
       </c>
       <c r="O23" s="6"/>
-      <c r="Q23" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="Q23" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
       <c r="Y23" s="15" t="s">
         <v>24</v>
       </c>
@@ -2076,14 +2134,21 @@
       </c>
       <c r="C24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4"/>
+      <c r="I24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="5"/>
       <c r="M24" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>5</v>
@@ -2092,11 +2157,11 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="U24" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="V24" s="44"/>
-      <c r="W24" s="45"/>
+      <c r="U24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="35"/>
+      <c r="W24" s="36"/>
       <c r="Y24" s="15" t="s">
         <v>25</v>
       </c>
@@ -2114,26 +2179,21 @@
       </c>
       <c r="C25" s="3"/>
       <c r="E25" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="I25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
       <c r="M25" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O25" s="6"/>
       <c r="Q25" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R25" s="10" t="s">
         <v>26</v>
@@ -2145,31 +2205,28 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
       <c r="M26" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="6"/>
       <c r="Q26" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="S26" s="10"/>
       <c r="U26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2178,30 +2235,33 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="I27" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
       <c r="M27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="6"/>
+      <c r="Q27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="10"/>
       <c r="U27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>26</v>
@@ -2209,27 +2269,23 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="E28" s="4" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="I28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="U28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>4</v>
@@ -2241,19 +2297,21 @@
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="E29" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="Q29" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
+      <c r="I29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="7"/>
       <c r="U29" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>26</v>
@@ -2269,50 +2327,57 @@
       </c>
       <c r="C30" s="22"/>
       <c r="E30" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="M30" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="41"/>
-      <c r="O30" s="42"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="I30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="M30" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
+      <c r="Q30" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="22"/>
       <c r="E31" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="I31" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="7"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="Q31" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
       <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -2324,130 +2389,120 @@
       </c>
       <c r="C32" s="22"/>
       <c r="E32" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="I32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="7"/>
       <c r="M32" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="O32" s="11"/>
       <c r="Q32" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R32" s="13" t="s">
         <v>26</v>
       </c>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="E33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="I33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="8"/>
       <c r="M33" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="I34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="13"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
-      <c r="E35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="I35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="M35" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="E36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4"/>
+      <c r="E35" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="I35" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="41"/>
+      <c r="K35" s="42"/>
+      <c r="M35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
+      <c r="E37" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="I37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="8"/>
       <c r="M37" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>26</v>
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>1</v>
       </c>
@@ -2455,199 +2510,266 @@
         <v>26</v>
       </c>
       <c r="C38" s="23"/>
-      <c r="I38" s="26" t="s">
+      <c r="E38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="I38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="M38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="E39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="I39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="E40" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="M38" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="E39" s="46" t="s">
+      <c r="F40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="M41" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="I42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="27"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="I40" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="E41" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="I41" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="E42" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="I42" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>121</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="E43" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="I43" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="E43" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E44" s="21" t="s">
+      <c r="M43" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="I44" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="M44" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="28"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E45" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="I45" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="20"/>
+      <c r="M45" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="28"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E46" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="I46" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="20"/>
+      <c r="M46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="28"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I47" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="M47" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="28"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I48" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="20"/>
+      <c r="M48" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="28"/>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I49" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="20"/>
+      <c r="M49" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" s="28"/>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I50" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="I44" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I45" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I46" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E47" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="50"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="50"/>
+      <c r="J50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I51" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I52" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="E39:G39"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I31:K31"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="A28:C28"/>
@@ -2655,10 +2777,17 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="I25:K25"/>
     <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
     <mergeCell ref="U9:W9"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M41:O41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD910DA5-01F5-4841-9C11-B3E07EE3600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D987B-B843-46B7-A8A2-6128C31C6EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
+    <workbookView xWindow="13140" yWindow="615" windowWidth="9660" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="130">
   <si>
     <t>Category</t>
   </si>
@@ -84,9 +84,6 @@
     <t>displayOrder</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>meta_keyword</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>detail</t>
   </si>
   <si>
-    <t>warranty_id</t>
-  </si>
-  <si>
     <t>tophot</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>city/province</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -306,9 +297,6 @@
     <t>not root</t>
   </si>
   <si>
-    <t>/address</t>
-  </si>
-  <si>
     <t>/shop</t>
   </si>
   <si>
@@ -415,6 +403,18 @@
   </si>
   <si>
     <t>use_count</t>
+  </si>
+  <si>
+    <t>Not exists</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Exists</t>
+  </si>
+  <si>
+    <t>province</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -651,7 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -659,6 +658,97 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,97 +756,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1089,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>0</v>
@@ -1128,16 +1127,16 @@
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1146,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1158,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1181,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1189,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1197,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1206,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1222,28 +1221,37 @@
         <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>-1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1251,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1260,7 +1268,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1268,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1276,36 +1290,27 @@
         <v>4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1313,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1322,56 +1327,65 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="E9" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="I9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="M9" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="Q9" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="U9" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="Y9" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AC9" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="M9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="Q9" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="U9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="Y9" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AC9" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1387,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="6"/>
       <c r="Q10" s="9"/>
@@ -1399,67 +1413,69 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5"/>
       <c r="M11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="Q11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S11" s="9"/>
       <c r="U11" s="14" t="s">
         <v>1</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W11" s="14"/>
       <c r="Y11" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA11" s="15"/>
-      <c r="AC11" s="18" t="s">
+      <c r="AC11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AD11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE11" s="18"/>
+      <c r="AD11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" s="17"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1468,116 +1484,142 @@
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="Q12" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="9"/>
+      <c r="S12" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="U12" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="14"/>
+      <c r="W12" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y12" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE12" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M13" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
       <c r="Q13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="U13" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="14"/>
+      <c r="W13" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y13" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA13" s="15"/>
-      <c r="AC13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD13" s="18" t="s">
+      <c r="AA13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AE13" s="18"/>
+      <c r="AE13" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1587,31 +1629,37 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="Q14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>9</v>
@@ -1623,162 +1671,196 @@
       <c r="V14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="14"/>
+      <c r="W14" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y14" s="15" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14" s="15"/>
-      <c r="AC14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE14" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M15" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="6"/>
       <c r="Q15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S15" s="9"/>
       <c r="U15" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y15" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA15" s="15"/>
-      <c r="AC15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="17"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="6"/>
       <c r="Q16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="9"/>
+      <c r="S16" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="U16" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="W16" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y16" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA16" s="15"/>
-      <c r="AC16" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AE16" s="18"/>
+      <c r="AE16" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4"/>
       <c r="I17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M17" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>9</v>
@@ -1790,28 +1872,36 @@
       <c r="R17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="9"/>
+      <c r="S17" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="U17" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W17" s="14"/>
+      <c r="W17" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y17" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA17" s="15"/>
-      <c r="AC17" s="18" t="s">
+      <c r="AA17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AD17" s="18" t="s">
+      <c r="AD17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AE17" s="18"/>
+      <c r="AE17" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -1824,12 +1914,14 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1837,17 +1929,17 @@
         <v>5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" s="6"/>
       <c r="Q18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>9</v>
@@ -1859,81 +1951,97 @@
       <c r="V18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="14"/>
+      <c r="W18" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="Y18" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Z18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="15"/>
-      <c r="AC18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="18" t="s">
+      <c r="AA18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AE18" s="18"/>
+      <c r="AE18" s="17"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I19" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="Q19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="U19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W19" s="14"/>
-      <c r="Y19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z19" s="17" t="s">
-        <v>5</v>
+      <c r="Y19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE19" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="AC19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE19" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -1942,60 +2050,72 @@
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="Q20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S20" s="9"/>
       <c r="U20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W20" s="14"/>
-      <c r="Y20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA20" s="15"/>
-      <c r="AC20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE20" s="18"/>
+      <c r="AD20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="17"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -2007,121 +2127,133 @@
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="5"/>
       <c r="M21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O21" s="6"/>
       <c r="U21" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W21" s="14"/>
       <c r="Y21" s="15" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Z21" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AA21" s="15"/>
-      <c r="AC21" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE21" s="18"/>
+      <c r="AC21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="17"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="M22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="Y22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA22" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O23" s="6"/>
-      <c r="Q23" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="Q23" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
       <c r="Y23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA23" s="15"/>
     </row>
@@ -2132,23 +2264,27 @@
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5"/>
       <c r="M24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>5</v>
@@ -2157,48 +2293,45 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="U24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="V24" s="35"/>
-      <c r="W24" s="36"/>
-      <c r="Y24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA24" s="15"/>
+      <c r="U24" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="49"/>
+      <c r="W24" s="50"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="4"/>
       <c r="M25" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O25" s="6"/>
       <c r="Q25" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
@@ -2208,46 +2341,52 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="M26" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="6"/>
       <c r="Q26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="U26" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
+      <c r="I27" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
       <c r="M27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>4</v>
@@ -2259,118 +2398,132 @@
       <c r="R27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S27" s="10"/>
+      <c r="S27" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="U27" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="E28" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="U28" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="E29" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="7"/>
       <c r="U29" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="22"/>
+      <c r="B30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="21"/>
       <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="M30" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
-      <c r="Q30" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
+      <c r="K30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="47"/>
+      <c r="Q30" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="22"/>
+      <c r="A31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="E31" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" s="7"/>
       <c r="M31" s="11"/>
@@ -2381,94 +2534,93 @@
       <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="E32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4"/>
+      <c r="B32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="I32" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7"/>
       <c r="M32" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O32" s="11"/>
       <c r="Q32" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="13"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="E35" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="M33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="11"/>
-      <c r="Q33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" s="13"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="E35" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
       <c r="I35" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J35" s="41"/>
       <c r="K35" s="42"/>
-      <c r="M35" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
+      <c r="M35" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2477,297 +2629,336 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="E37" s="21" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="E37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="21"/>
+      <c r="F37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="20"/>
       <c r="I37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K37" s="8"/>
       <c r="M37" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="E38" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="21"/>
+      <c r="B38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="E38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="I38" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="M38" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O38" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="M41" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="I42" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="56"/>
+      <c r="K42" s="57"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="E39" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="I39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="E40" s="21" t="s">
+      <c r="B43" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="E43" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="M43" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="24"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="I44" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="M44" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="24"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E45" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="M41" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="F45" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="I42" s="25" t="s">
+      <c r="J45" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E46" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="M46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I47" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="M47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="24"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I48" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="M48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I49" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="24"/>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I50" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="27"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="E43" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="M43" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="I44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="M44" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E45" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="I45" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="20"/>
-      <c r="M45" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="28"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E46" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="I46" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="20"/>
-      <c r="M46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="O46" s="28"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I47" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K47" s="20"/>
-      <c r="M47" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="O47" s="28"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I48" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="20"/>
-      <c r="M48" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O48" s="28"/>
-    </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I49" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" s="20"/>
-      <c r="M49" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O49" s="28"/>
-    </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I50" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K50" s="20"/>
+      <c r="J50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K51" s="20"/>
+      <c r="I51" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I52" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="20"/>
+      <c r="I52" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="I42:K42"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="Q9:S9"/>
@@ -2782,12 +2973,6 @@
     <mergeCell ref="U9:W9"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="I35:K35"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M41:O41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D987B-B843-46B7-A8A2-6128C31C6EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126E86DF-1DC7-42AF-A893-05BD54D38ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="615" windowWidth="9660" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
+    <workbookView xWindow="30" yWindow="210" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="128">
   <si>
     <t>Category</t>
   </si>
@@ -81,15 +81,9 @@
     <t>slug</t>
   </si>
   <si>
-    <t>displayOrder</t>
-  </si>
-  <si>
     <t>meta_keyword</t>
   </si>
   <si>
-    <t>meta_description</t>
-  </si>
-  <si>
     <t>meta_title</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>noti_id</t>
   </si>
   <si>
-    <t>acc_id</t>
-  </si>
-  <si>
     <t>Wishlist</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>receive_date</t>
   </si>
   <si>
-    <t>read_date</t>
-  </si>
-  <si>
     <t>is_delete</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
     <t>/shop</t>
   </si>
   <si>
-    <t>OrderProduct</t>
-  </si>
-  <si>
     <t>order_id</t>
   </si>
   <si>
@@ -415,6 +400,15 @@
   </si>
   <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>display_order</t>
+  </si>
+  <si>
+    <t>meta_descrp</t>
+  </si>
+  <si>
+    <t>OrderItem</t>
   </si>
 </sst>
 </file>
@@ -633,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -659,6 +653,51 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,9 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,9 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,49 +746,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1088,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>0</v>
@@ -1127,16 +1133,16 @@
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1145,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1157,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1180,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1188,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1196,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1205,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1221,18 +1227,18 @@
         <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>-1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1241,17 +1247,17 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1259,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1268,13 +1274,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1282,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1290,27 +1296,27 @@
         <v>4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1318,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1327,65 +1333,65 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="E9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="I9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="M9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="Q9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="U9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="Y9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AC9" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="E9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="I9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="M9" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="Q9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="U9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="Y9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AC9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1401,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O10" s="6"/>
       <c r="Q10" s="9"/>
@@ -1422,58 +1428,58 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4"/>
       <c r="I11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11" s="5"/>
       <c r="M11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S11" s="9"/>
       <c r="U11" s="14" t="s">
         <v>1</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W11" s="14"/>
       <c r="Y11" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AC11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE11" s="17"/>
     </row>
@@ -1485,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -1494,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>2</v>
@@ -1503,52 +1509,52 @@
         <v>5</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -1556,110 +1562,108 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
       <c r="Q13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>9</v>
@@ -1672,89 +1676,91 @@
         <v>4</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="AE14" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="6"/>
       <c r="Q15" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S15" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="U15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC15" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>5</v>
@@ -1763,135 +1769,133 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="6"/>
       <c r="Q16" s="9" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AD16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="4"/>
       <c r="I17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O17" s="6"/>
       <c r="Q17" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="S17" s="9"/>
       <c r="U17" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y17" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC17" s="17" t="s">
         <v>10</v>
@@ -1900,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -1914,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>17</v>
@@ -1929,22 +1933,24 @@
         <v>5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O18" s="6"/>
       <c r="Q18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="U18" s="14" t="s">
         <v>10</v>
       </c>
@@ -1952,19 +1958,19 @@
         <v>9</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD18" s="17" t="s">
         <v>9</v>
@@ -1973,74 +1979,72 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>84</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S19" s="9"/>
       <c r="U19" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W19" s="14"/>
       <c r="Y19" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Z19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC19" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD19" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -2051,16 +2055,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>10</v>
@@ -2069,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>10</v>
@@ -2078,23 +2082,16 @@
         <v>9</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="9"/>
+        <v>80</v>
+      </c>
       <c r="U20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y20" s="15" t="s">
         <v>10</v>
@@ -2103,78 +2100,78 @@
         <v>9</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE20" s="17"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="5"/>
       <c r="M21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O21" s="6"/>
       <c r="U21" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W21" s="14"/>
       <c r="Y21" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="15" t="s">
         <v>9</v>
       </c>
       <c r="AA21" s="15"/>
       <c r="AC21" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AD21" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE21" s="17"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -2183,77 +2180,80 @@
         <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Q22" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="57"/>
+      <c r="S22" s="58"/>
       <c r="Y22" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA22" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O23" s="6"/>
-      <c r="Q23" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
       <c r="Y23" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA23" s="15"/>
     </row>
@@ -2265,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>10</v>
@@ -2274,50 +2274,56 @@
         <v>9</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K24" s="5"/>
       <c r="M24" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="6"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="U24" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="V24" s="49"/>
-      <c r="W24" s="50"/>
+      <c r="Q24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V24" s="31"/>
+      <c r="W24" s="32"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="4"/>
       <c r="M25" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>5</v>
@@ -2327,10 +2333,10 @@
         <v>70</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2338,103 +2344,112 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="6"/>
       <c r="Q26" s="10" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="I27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
       <c r="M27" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="6"/>
       <c r="Q27" s="10" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
       <c r="E28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
+      <c r="Q28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="U28" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -2442,29 +2457,36 @@
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="E29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K29" s="7"/>
+      <c r="Q29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="10"/>
       <c r="U29" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -2472,66 +2494,74 @@
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="21"/>
       <c r="E30" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
-      <c r="Q30" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
+        <v>80</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="Q30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K31" s="7"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="Q31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -2541,83 +2571,86 @@
         <v>5</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K32" s="7"/>
       <c r="M32" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O32" s="11"/>
-      <c r="Q32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="Q33" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="R33" s="60"/>
+      <c r="S33" s="61"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="E35" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="I35" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
-      <c r="M35" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
+      <c r="E35" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="I35" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
+      <c r="M35" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="Q35" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -2627,6 +2660,13 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
+      <c r="Q36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
@@ -2636,69 +2676,76 @@
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G37" s="20"/>
       <c r="I37" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K37" s="8"/>
       <c r="M37" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O37" s="12"/>
+      <c r="Q37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="13"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="22"/>
       <c r="E38" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
@@ -2707,88 +2754,88 @@
         <v>5</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="M41" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
+      <c r="M41" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="I42" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="J42" s="56"/>
-      <c r="K42" s="57"/>
+      <c r="I42" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="E43" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="E43" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="M43" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O43" s="24"/>
     </row>
@@ -2800,11 +2847,11 @@
         <v>1</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K44" s="19"/>
       <c r="M44" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N44" s="24" t="s">
         <v>9</v>
@@ -2813,45 +2860,45 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E45" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N45" s="24" t="s">
         <v>16</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E46" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>5</v>
@@ -2864,19 +2911,19 @@
         <v>9</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I47" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K47" s="19"/>
       <c r="M47" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N47" s="24" t="s">
         <v>9</v>
@@ -2885,65 +2932,65 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I48" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="19"/>
       <c r="M48" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O49" s="24"/>
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I50" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I51" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J51" s="19" t="s">
         <v>5</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J52" s="19" t="s">
         <v>5</v>
@@ -2952,6 +2999,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="Q22:S22"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M30:O30"/>
@@ -2959,20 +3020,6 @@
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="M41:O41"/>
     <mergeCell ref="I42:K42"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="I35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126E86DF-1DC7-42AF-A893-05BD54D38ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5209B54-3E8D-4454-B37D-A4480A83EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="210" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
+    <workbookView xWindow="15255" yWindow="0" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="127">
   <si>
     <t>Category</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>shop_id</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>warrenty</t>
@@ -653,6 +650,72 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,72 +759,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1114,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>0</v>
@@ -1133,16 +1130,16 @@
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1151,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1163,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1186,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1194,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1202,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1211,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1227,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -1238,7 +1235,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1247,17 +1244,17 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1265,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1274,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
         <v>122</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1288,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1296,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1307,16 +1304,16 @@
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1324,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1333,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -1342,56 +1339,56 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="E9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="I9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="M9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="E9" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="I9" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="M9" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="Q9" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="U9" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="Y9" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AC9" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="Q9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="U9" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="Y9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AC9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1446,13 +1443,13 @@
       </c>
       <c r="K11" s="5"/>
       <c r="M11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>1</v>
@@ -1491,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -1500,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>2</v>
@@ -1509,127 +1506,127 @@
         <v>5</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
       <c r="Q13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1642,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>27</v>
@@ -1651,19 +1648,19 @@
         <v>5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>9</v>
@@ -1676,25 +1673,25 @@
         <v>4</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="AE14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -1705,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>29</v>
@@ -1714,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>18</v>
@@ -1723,44 +1720,44 @@
         <v>5</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="6"/>
       <c r="Q15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="S15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="U15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="Z15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>5</v>
@@ -1769,13 +1766,13 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>30</v>
@@ -1784,19 +1781,19 @@
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>16</v>
@@ -1809,34 +1806,34 @@
         <v>9</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -1847,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>31</v>
@@ -1863,10 +1860,10 @@
         <v>5</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>9</v>
@@ -1880,13 +1877,13 @@
       </c>
       <c r="S17" s="9"/>
       <c r="U17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y17" s="15" t="s">
         <v>30</v>
@@ -1895,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC17" s="17" t="s">
         <v>10</v>
@@ -1904,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -1924,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>17</v>
@@ -1933,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>23</v>
@@ -1949,7 +1946,7 @@
         <v>23</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U18" s="14" t="s">
         <v>10</v>
@@ -1958,16 +1955,16 @@
         <v>9</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC18" s="17" t="s">
         <v>20</v>
@@ -1979,13 +1976,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
@@ -1994,25 +1991,25 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>22</v>
@@ -2029,13 +2026,13 @@
       </c>
       <c r="W19" s="14"/>
       <c r="Y19" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC19" s="17" t="s">
         <v>21</v>
@@ -2044,7 +2041,7 @@
         <v>23</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -2055,16 +2052,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>10</v>
@@ -2073,7 +2070,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>10</v>
@@ -2082,7 +2079,7 @@
         <v>9</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U20" s="14" t="s">
         <v>21</v>
@@ -2091,7 +2088,7 @@
         <v>23</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y20" s="15" t="s">
         <v>10</v>
@@ -2100,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC20" s="17" t="s">
         <v>22</v>
@@ -2125,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
@@ -2156,7 +2153,7 @@
       </c>
       <c r="AA21" s="15"/>
       <c r="AC21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD21" s="17" t="s">
         <v>23</v>
@@ -2171,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -2189,7 +2186,7 @@
         <v>23</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>21</v>
@@ -2198,13 +2195,13 @@
         <v>23</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
+        <v>79</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="45"/>
+      <c r="S22" s="46"/>
       <c r="Y22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2212,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="AA22" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -2224,13 +2221,13 @@
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2265,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>10</v>
@@ -2274,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>24</v>
@@ -2284,26 +2281,26 @@
       </c>
       <c r="K24" s="5"/>
       <c r="M24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="6"/>
       <c r="Q24" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="U24" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="V24" s="53"/>
+      <c r="W24" s="54"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2313,7 +2310,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>20</v>
@@ -2323,20 +2320,20 @@
       </c>
       <c r="G25" s="4"/>
       <c r="M25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O25" s="6"/>
       <c r="Q25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2350,10 +2347,10 @@
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>5</v>
@@ -2366,16 +2363,16 @@
         <v>4</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -2386,43 +2383,43 @@
         <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="I27" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
       <c r="M27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="6"/>
       <c r="Q27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
@@ -2440,16 +2437,16 @@
         <v>9</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -2463,7 +2460,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>1</v>
@@ -2480,13 +2477,13 @@
       </c>
       <c r="S29" s="10"/>
       <c r="U29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -2498,26 +2495,26 @@
       </c>
       <c r="C30" s="21"/>
       <c r="E30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="51"/>
       <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>23</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -2536,10 +2533,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>5</v>
@@ -2571,17 +2568,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="7"/>
       <c r="M32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>23</v>
@@ -2590,28 +2587,28 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="R33" s="60"/>
-      <c r="S33" s="61"/>
+        <v>79</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" s="35"/>
+      <c r="S33" s="36"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q34" s="13"/>
@@ -2622,23 +2619,23 @@
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="E35" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="I35" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
-      <c r="M35" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="E35" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="I35" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+      <c r="M35" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
       <c r="Q35" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R35" s="13" t="s">
         <v>23</v>
@@ -2646,11 +2643,11 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="A36" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -2661,7 +2658,7 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="Q36" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R36" s="13" t="s">
         <v>23</v>
@@ -2687,14 +2684,14 @@
       </c>
       <c r="K37" s="8"/>
       <c r="M37" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="12"/>
       <c r="Q37" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R37" s="13" t="s">
         <v>23</v>
@@ -2710,42 +2707,42 @@
       </c>
       <c r="C38" s="22"/>
       <c r="E38" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
@@ -2754,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>23</v>
@@ -2766,73 +2763,73 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="M41" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
+      <c r="M41" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>103</v>
-      </c>
       <c r="C42" s="22"/>
-      <c r="I42" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="39"/>
+      <c r="I42" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="60"/>
+      <c r="K42" s="61"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="E43" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="E43" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="M43" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N43" s="24" t="s">
         <v>23</v>
@@ -2851,7 +2848,7 @@
       </c>
       <c r="K44" s="19"/>
       <c r="M44" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N44" s="24" t="s">
         <v>9</v>
@@ -2860,45 +2857,45 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E45" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J45" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N45" s="24" t="s">
         <v>16</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E46" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>5</v>
@@ -2911,15 +2908,15 @@
         <v>9</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="K47" s="19"/>
       <c r="M47" s="24" t="s">
@@ -2932,7 +2929,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I48" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>9</v>
@@ -2945,18 +2942,18 @@
         <v>23</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J49" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M49" s="24" t="s">
         <v>22</v>
@@ -2968,13 +2965,13 @@
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I50" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
@@ -2985,12 +2982,12 @@
         <v>5</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J52" s="19" t="s">
         <v>5</v>
@@ -2999,6 +2996,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="I42:K42"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="Q9:S9"/>
@@ -3013,13 +3017,6 @@
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="I42:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5209B54-3E8D-4454-B37D-A4480A83EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A20027-42A9-489F-AA1B-6165D0D8DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="0" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
+    <workbookView xWindow="8535" yWindow="105" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,6 +650,51 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,51 +759,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1349,46 +1349,46 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="E9" s="30" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="E9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="I9" s="31" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="I9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="M9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="Q9" s="27" t="s">
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="Q9" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="U9" s="37" t="s">
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="U9" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="Y9" s="33" t="s">
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="Y9" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AC9" s="25" t="s">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AC9" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -2197,11 +2197,11 @@
       <c r="O22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="61"/>
       <c r="Y22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2296,11 +2296,11 @@
       <c r="S24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="U24" s="52" t="s">
+      <c r="U24" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="V24" s="53"/>
-      <c r="W24" s="54"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="32"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2383,11 +2383,11 @@
         <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
       <c r="M27" s="6" t="s">
         <v>48</v>
       </c>
@@ -2415,11 +2415,11 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
@@ -2510,11 +2510,11 @@
       <c r="K30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="50"/>
-      <c r="O30" s="51"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
       <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2604,11 +2604,11 @@
       <c r="O33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="R33" s="35"/>
-      <c r="S33" s="36"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q34" s="13"/>
@@ -2619,21 +2619,21 @@
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="I35" s="41" t="s">
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="I35" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
-      <c r="M35" s="48" t="s">
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="M35" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
       <c r="Q35" s="13" t="s">
         <v>69</v>
       </c>
@@ -2643,11 +2643,11 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -2789,11 +2789,11 @@
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="M41" s="58" t="s">
+      <c r="M41" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
@@ -2803,11 +2803,11 @@
         <v>102</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="I42" s="59" t="s">
+      <c r="I42" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="60"/>
-      <c r="K42" s="61"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
@@ -2820,11 +2820,11 @@
         <v>9</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -2996,13 +2996,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="I42:K42"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="Q9:S9"/>
@@ -3017,6 +3010,13 @@
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="I42:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A20027-42A9-489F-AA1B-6165D0D8DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB45CC4-54CE-48E7-BEE2-3D21DF6D247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="105" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
+    <workbookView minimized="1" xWindow="13050" yWindow="135" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="125">
   <si>
     <t>Category</t>
   </si>
@@ -366,15 +366,6 @@
     <t>opt_sale_price</t>
   </si>
   <si>
-    <t>OptProductValueToValue</t>
-  </si>
-  <si>
-    <t>id_value1</t>
-  </si>
-  <si>
-    <t>id_value2</t>
-  </si>
-  <si>
     <t>no option product</t>
   </si>
   <si>
@@ -406,6 +397,9 @@
   </si>
   <si>
     <t>OrderItem</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -421,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +532,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -649,41 +637,37 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
-  <dimension ref="A1:AE52"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
@@ -1274,10 +1258,10 @@
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1307,13 +1291,13 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1345,50 +1329,50 @@
         <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="E9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="I9" s="46" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="I9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="M9" s="47" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="M9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="Q9" s="42" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="Q9" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="U9" s="52" t="s">
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="U9" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="Y9" s="48" t="s">
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="Y9" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AC9" s="40" t="s">
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AC9" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1626,7 +1610,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1676,7 +1660,7 @@
         <v>79</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Z14" s="15" t="s">
         <v>23</v>
@@ -1766,7 +1750,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -1784,7 +1768,7 @@
         <v>79</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>5</v>
@@ -2055,7 +2039,7 @@
         <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -2197,11 +2181,11 @@
       <c r="O22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" s="59" t="s">
+      <c r="Q22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="60"/>
-      <c r="S22" s="61"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="59"/>
       <c r="Y22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2296,11 +2280,11 @@
       <c r="S24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="U24" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
+      <c r="U24" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="V24" s="29"/>
+      <c r="W24" s="30"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2383,11 +2367,11 @@
         <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
       <c r="M27" s="6" t="s">
         <v>48</v>
       </c>
@@ -2415,11 +2399,11 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="E28" s="4" t="s">
         <v>24</v>
       </c>
@@ -2510,11 +2494,11 @@
       <c r="K30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="29"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
       <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2571,7 +2555,7 @@
         <v>79</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>23</v>
@@ -2604,11 +2588,11 @@
       <c r="O33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="49" t="s">
+      <c r="Q33" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="51"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q34" s="13"/>
@@ -2619,21 +2603,21 @@
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="I35" s="56" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="I35" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
-      <c r="M35" s="26" t="s">
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
+      <c r="M35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
       <c r="Q35" s="13" t="s">
         <v>69</v>
       </c>
@@ -2643,11 +2627,11 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -2789,11 +2773,11 @@
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="M41" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
+      <c r="M41" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
@@ -2803,14 +2787,9 @@
         <v>102</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="I42" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="39"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
@@ -2820,182 +2799,174 @@
         <v>9</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="E43" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="M43" s="24" t="s">
+      <c r="E43" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
+      <c r="M43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="N43" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O43" s="24"/>
+      <c r="N43" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="I44" s="19" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="M44" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="23"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E45" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J44" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="M44" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="N44" s="24" t="s">
+      <c r="F45" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="M45" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E46" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O44" s="24"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E45" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M45" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E46" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="19" t="s">
+      <c r="O46" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E47" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E48" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J46" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="19"/>
-      <c r="M46" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="24" t="s">
+      <c r="F48" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="M48" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E49" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="M49" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="23"/>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E50" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I47" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47" s="19"/>
-      <c r="M47" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I48" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="19"/>
-      <c r="M48" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O48" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I49" s="19" t="s">
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E51" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O49" s="24"/>
-    </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I50" s="19" t="s">
+      <c r="F51" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E52" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J50" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="19" t="s">
+      <c r="F52" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I52" s="19" t="s">
+      <c r="F53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E54" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J52" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="Q9:S9"/>
@@ -3010,13 +2981,12 @@
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="E43:G43"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="M41:O41"/>
-    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB45CC4-54CE-48E7-BEE2-3D21DF6D247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64182507-9EBA-480A-BFA2-1C906F418C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13050" yWindow="135" windowWidth="10950" windowHeight="11085" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="124">
   <si>
     <t>Category</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>avatar</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
   <si>
     <t>category_id</t>
@@ -637,6 +634,102 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,102 +740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1073,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
-  <dimension ref="A1:AE54"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C36"/>
+      <selection activeCell="A39" sqref="A39:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1095,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="b">
         <v>0</v>
@@ -1114,16 +1111,16 @@
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1132,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1167,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1175,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1183,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1192,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1208,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -1219,7 +1216,7 @@
         <v>-1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1228,17 +1225,17 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1246,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1255,13 +1252,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
         <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1269,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1277,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1288,16 +1285,16 @@
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1305,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1314,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -1323,56 +1320,56 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="E9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="I9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="E9" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="I9" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="Q9" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="U9" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="Y9" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AC9" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="Q9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="U9" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="Y9" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AC9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1427,13 +1424,13 @@
       </c>
       <c r="K11" s="5"/>
       <c r="M11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>1</v>
@@ -1472,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -1481,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>2</v>
@@ -1490,127 +1487,127 @@
         <v>5</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
       <c r="Q13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA13" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1620,10 +1617,10 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>27</v>
@@ -1632,19 +1629,19 @@
         <v>5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>9</v>
@@ -1657,25 +1654,25 @@
         <v>4</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="AE14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -1686,16 +1683,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>18</v>
@@ -1704,44 +1701,44 @@
         <v>5</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="6"/>
       <c r="Q15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="S15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="U15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="Z15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>5</v>
@@ -1750,34 +1747,32 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="I16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>16</v>
@@ -1790,34 +1785,34 @@
         <v>9</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AA16" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -1828,15 +1823,17 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1844,10 +1841,10 @@
         <v>5</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>9</v>
@@ -1861,22 +1858,22 @@
       </c>
       <c r="S17" s="9"/>
       <c r="U17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC17" s="17" t="s">
         <v>10</v>
@@ -1885,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="AE17" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -1899,13 +1896,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>17</v>
@@ -1914,10 +1911,10 @@
         <v>5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>23</v>
@@ -1930,7 +1927,7 @@
         <v>23</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U18" s="14" t="s">
         <v>10</v>
@@ -1939,16 +1936,16 @@
         <v>9</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AA18" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC18" s="17" t="s">
         <v>20</v>
@@ -1960,40 +1957,40 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>22</v>
@@ -2010,13 +2007,13 @@
       </c>
       <c r="W19" s="14"/>
       <c r="Y19" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="AA19" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC19" s="17" t="s">
         <v>21</v>
@@ -2025,7 +2022,7 @@
         <v>23</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -2036,16 +2033,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>10</v>
@@ -2054,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>10</v>
@@ -2063,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U20" s="14" t="s">
         <v>21</v>
@@ -2072,7 +2069,7 @@
         <v>23</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="15" t="s">
         <v>10</v>
@@ -2081,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC20" s="17" t="s">
         <v>22</v>
@@ -2100,13 +2097,13 @@
       </c>
       <c r="C21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
@@ -2137,7 +2134,7 @@
       </c>
       <c r="AA21" s="15"/>
       <c r="AC21" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD21" s="17" t="s">
         <v>23</v>
@@ -2152,16 +2149,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>21</v>
@@ -2170,7 +2167,7 @@
         <v>23</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>21</v>
@@ -2179,13 +2176,13 @@
         <v>23</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q22" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="58"/>
-      <c r="S22" s="59"/>
+        <v>78</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="54"/>
+      <c r="S22" s="55"/>
       <c r="Y22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2193,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="AA22" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -2205,13 +2202,13 @@
       </c>
       <c r="C23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2246,17 +2243,15 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="I24" s="5" t="s">
         <v>24</v>
       </c>
@@ -2265,26 +2260,26 @@
       </c>
       <c r="K24" s="5"/>
       <c r="M24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="6"/>
       <c r="Q24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="V24" s="29"/>
-      <c r="W24" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="V24" s="25"/>
+      <c r="W24" s="26"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2294,30 +2289,32 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="M25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="O25" s="6"/>
       <c r="Q25" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2325,16 +2322,14 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="M26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>5</v>
@@ -2347,70 +2342,72 @@
         <v>4</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
+      <c r="I27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
       <c r="M27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="6"/>
       <c r="Q27" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="E28" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -2421,16 +2418,16 @@
         <v>9</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -2441,11 +2438,9 @@
         <v>33</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="I29" s="7" t="s">
         <v>1</v>
       </c>
@@ -2461,13 +2456,13 @@
       </c>
       <c r="S29" s="10"/>
       <c r="U29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -2479,26 +2474,26 @@
       </c>
       <c r="C30" s="21"/>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="M30" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="58"/>
+      <c r="O30" s="59"/>
       <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2506,26 +2501,19 @@
         <v>23</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>78</v>
+      </c>
       <c r="I31" s="7" t="s">
         <v>24</v>
       </c>
@@ -2552,17 +2540,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="7"/>
       <c r="M32" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>23</v>
@@ -2571,30 +2559,38 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
       <c r="M33" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q33" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="48"/>
-      <c r="S33" s="49"/>
+        <v>78</v>
+      </c>
+      <c r="Q33" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="47"/>
+      <c r="S33" s="48"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
@@ -2603,38 +2599,46 @@
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="E35" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="I35" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
-      <c r="M35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+      <c r="E35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="I35" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="M35" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
       <c r="Q35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="E36" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="13"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2642,7 +2646,7 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="Q36" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R36" s="13" t="s">
         <v>23</v>
@@ -2654,12 +2658,14 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="E37" s="20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="I37" s="8" t="s">
         <v>1</v>
       </c>
@@ -2668,14 +2674,14 @@
       </c>
       <c r="K37" s="8"/>
       <c r="M37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="12"/>
       <c r="Q37" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R37" s="13" t="s">
         <v>23</v>
@@ -2691,54 +2697,45 @@
       </c>
       <c r="C38" s="22"/>
       <c r="E38" s="20" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>23</v>
@@ -2747,65 +2744,66 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="M41" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
+      <c r="E41" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="M41" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="C42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="E43" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37"/>
+      <c r="E43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="19"/>
       <c r="M43" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>23</v>
@@ -2813,11 +2811,17 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="E44" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="M44" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>9</v>
@@ -2826,32 +2830,32 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E45" s="19" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="M45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>16</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E46" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>79</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G46" s="19"/>
       <c r="M46" s="23" t="s">
         <v>10</v>
       </c>
@@ -2859,19 +2863,17 @@
         <v>9</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E47" s="19" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>79</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G47" s="19"/>
       <c r="M47" s="23" t="s">
         <v>20</v>
       </c>
@@ -2882,10 +2884,10 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E48" s="19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G48" s="19"/>
       <c r="M48" s="23" t="s">
@@ -2895,17 +2897,19 @@
         <v>23</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E49" s="19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="M49" s="23" t="s">
         <v>22</v>
       </c>
@@ -2916,54 +2920,34 @@
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E50" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E51" s="19" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E52" s="19" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E54" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2978,7 +2962,6 @@
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Q33:S33"/>
     <mergeCell ref="U9:W9"/>
-    <mergeCell ref="E35:G35"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="M35:O35"/>
@@ -2986,7 +2969,8 @@
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="M41:O41"/>
-    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64182507-9EBA-480A-BFA2-1C906F418C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E5033-DBBF-442C-9601-30D5FEDC7AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
@@ -634,6 +634,75 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,75 +740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1330,46 +1330,46 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="E9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="I9" s="43" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="M9" s="44" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="M9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="Q9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="U9" s="49" t="s">
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="U9" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="Y9" s="45" t="s">
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="Y9" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AC9" s="37" t="s">
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AC9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -2178,11 +2178,11 @@
       <c r="O22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="53" t="s">
+      <c r="Q22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
       <c r="Y22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2275,11 +2275,11 @@
       <c r="S24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="U24" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="V24" s="25"/>
-      <c r="W24" s="26"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="49"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2362,11 +2362,11 @@
         <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
       <c r="M27" s="6" t="s">
         <v>47</v>
       </c>
@@ -2394,11 +2394,11 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
@@ -2489,11 +2489,11 @@
       <c r="K30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="57" t="s">
+      <c r="M30" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="59"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="46"/>
       <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2567,11 +2567,11 @@
       <c r="C33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
       <c r="M33" s="11" t="s">
         <v>69</v>
       </c>
@@ -2581,11 +2581,11 @@
       <c r="O33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Q33" s="46" t="s">
+      <c r="Q33" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="R33" s="47"/>
-      <c r="S33" s="48"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E34" s="20"/>
@@ -2606,16 +2606,16 @@
         <v>23</v>
       </c>
       <c r="G35" s="20"/>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="M35" s="56" t="s">
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+      <c r="M35" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
       <c r="Q35" s="13" t="s">
         <v>68</v>
       </c>
@@ -2625,11 +2625,11 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="E36" s="20" t="s">
         <v>69</v>
       </c>
@@ -2761,16 +2761,16 @@
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="M41" s="30" t="s">
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="M41" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
@@ -2951,6 +2951,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="Q9:S9"/>
@@ -2967,10 +2971,6 @@
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="U24:W24"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database-relationship.xlsx
+++ b/database-relationship.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\Project\WorldTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E5033-DBBF-442C-9601-30D5FEDC7AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC9ABF5-40AE-4CA6-B68D-3AC0FB7064E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{FF15BF61-1AD8-42DE-9898-09F972EAAF54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="125">
   <si>
     <t>Category</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -634,6 +637,36 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,36 +743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1070,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D921007E-89AB-4F4D-ADA5-198EBA7FAFFD}">
-  <dimension ref="A1:AE52"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1330,46 +1333,46 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="E9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="I9" s="30" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="I9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="M9" s="31" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="M9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="Q9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="U9" s="36" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="U9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="Y9" s="32" t="s">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="Y9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AC9" s="24" t="s">
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AC9" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -2178,11 +2181,11 @@
       <c r="O22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="40" t="s">
+      <c r="Q22" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="52"/>
       <c r="Y22" s="15" t="s">
         <v>21</v>
       </c>
@@ -2275,11 +2278,11 @@
       <c r="S24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="47" t="s">
+      <c r="U24" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="V24" s="48"/>
-      <c r="W24" s="49"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="59"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2362,11 +2365,11 @@
         <v>23</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
       <c r="M27" s="6" t="s">
         <v>47</v>
       </c>
@@ -2394,11 +2397,11 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
@@ -2489,11 +2492,11 @@
       <c r="K30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="46"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
       <c r="Q30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2567,11 +2570,11 @@
       <c r="C33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
       <c r="M33" s="11" t="s">
         <v>69</v>
       </c>
@@ -2581,11 +2584,11 @@
       <c r="O33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Q33" s="33" t="s">
+      <c r="Q33" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="R33" s="34"/>
-      <c r="S33" s="35"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="45"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E34" s="20"/>
@@ -2606,16 +2609,16 @@
         <v>23</v>
       </c>
       <c r="G35" s="20"/>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
-      <c r="M35" s="43" t="s">
+      <c r="J35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="M35" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
       <c r="Q35" s="13" t="s">
         <v>68</v>
       </c>
@@ -2625,11 +2628,11 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="E36" s="20" t="s">
         <v>69</v>
       </c>
@@ -2761,16 +2764,16 @@
         <v>5</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="M41" s="53" t="s">
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="M41" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
@@ -2949,13 +2952,17 @@
       </c>
       <c r="G52" s="19"/>
     </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E53" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="A28:C28"/>
@@ -2963,13 +2970,18 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="U9:W9"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M30:O30"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="U9:W9"/>
     <mergeCell ref="U24:W24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
